--- a/medicine/Pharmacie/Ribavirine/Ribavirine.xlsx
+++ b/medicine/Pharmacie/Ribavirine/Ribavirine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ribavirine est un analogue nucléosidique de la guanosine, à large spectre antiviral. En effet, elle présente une activité antivirale in vitro contre de nombreux virus à ADN ou à ARN comme respectivement : 
@@ -516,7 +528,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine a été découverte en 1972. Elle a d’abord été étudiée dans le cas du virus respiratoire syncitial (RSV) et approuvée comme traitement pour des pneumonies virales sévères des enfants en bas âge. Elle a, par la suite, été étudiée pour le traitement de l’hépatite C en monothérapie mais malheureusement n’était pas suffisamment efficace. Plus tard il a été prouvé qu’elle potentialisait l’action de l’interféron dans le traitement de cette même infection.
 L’Autorisation de mise sur le marché de la ribavirine fut accordée le 7 mai 1999 aux laboratoires Schering-Plough et rectifiée le 1er juin 2007.
@@ -548,7 +562,9 @@
           <t>Structures chimiques et caractéristiques pharmacologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine comporte un ribose et un noyau triazole, sa structure se rapproche donc des bases puriques et du noyau des bases pyrimidiques de l’ADN.
 C’est une molécule soluble dans l’eau, très faiblement liée aux protéines plasmatiques. Sa biodisponibilité orale varie entre 35 et 70 %, sa concentration maximale atteinte après plusieurs prises peut atteindre entre 1,2  et   3,0 μg·ml-1.
@@ -580,20 +596,16 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet antiviral est principalement utilisé pour traiter l’hépatite chronique C et plus occasionnellement pour soigner les enfants atteints par le virus syncytial respiratoire.
 La ribavirine peut également être utilisée afin de prévenir la récidive virale après une transplantation hépatique (en bithérapie avec de l’interféron) en éradiquant le virus avant l‘intervention. 
 Les formes intraveineuses et/ou aérosols de ce médicament ont été occasionnellement utilisées pour le traitement d’infections sévères au virus Influenza et pour traiter des patients immunodéprimés atteints par le virus para-influenza ou le virus de la rougeole.
 Administrée en aérosol dans le traitement des bronchiolites et pneumonies, la ribavirine atténue les manifestations de la maladie, améliore l’oxygénation artérielle et réduit de façon variable la dissémination virale, cependant la prescription de cet antiviral n’est généralement pas justifiée dans le traitement de la bronchiolite aigüe des nourrissons, (absence de preuves et coûts élevés) mais certains nouveau-nés présentant des facteurs de risques importants (maladies cardiaques, pulmonaires, immunosuppression, etc.) pourraient en profiter.
 De plus, la ribavirine administrée en intraveineuse diminue la mortalité de la fièvre de Lassa et de la fièvre hémorragique avec atteinte rénale due au virus Hantaan.
-La ribavirine selon de premiers tests ayant porté sur l'effet de la ribavirine sur un gène (le gène eIF4E qui dysfonctionne dans 30 % des cancers), serait également efficace dans le traitement d'environ 30 % des cancers, apparemment sans effets négatifs pour le patient[2]. La recherche se poursuit (notamment sur l'apparition d'éventuelles résistances au traitement ou les effets sur d'autres sortes de cancers), n'ayant à ce jour porté que sur un nombre limité (13 cas) de leucémie myéloïde aiguë M4 et M5 après plusieurs traitements sans effets par d'autres médicaments) mais avec des résultats « spectaculaires » selon le Dr Assouline.
-En monothérapie
-La ribavirine, comme précisé précédemment, est rarement prescrite dans le traitement des infections respiratoires à virus syncytial bien que des études rétrospectives ont suggéré que l’administration précoce de ribavirine et d’immunoglobulines pour les infections à RSV des voies respiratoires supérieures diminue le risque d’extension aux voies respiratoires inférieures et donc la morbidité et la mortalité. 
-L’effet de la ribavirine en monothérapie chez les malades atteints d’hépatite C chronique permet une réduction des transaminases et de l’activité inflammatoire histologique sans influer sur la réplication virale. Elle n’est donc généralement pas administrée en monothérapie dans ce type d’infection. Cependant pour les patients présentant une contre-indication ou une intolérance à l’interféron, son utilisation pourra être discutée bien que cette stratégie n’ait pas été suffisamment validée.
-En bithérapie
-Puisque la ribavirine est inefficace sur la réplication virale en monothérapie, elle est prescrite en association avec l’interféron et semble pouvoir potentialiser l’efficacité de ce dernier, et ceci chez un patient naïf (jamais traité) ou répondeur-rechuteur à une première cure d’interféron. Plusieurs études de grande ampleur ont été publiées et mettent en évidence la supériorité du traitement combiné de l’interféron et la ribavirine par rapport au traitement en monothérapie de l’interféron en termes de réponse prolongée biochimique, virologique et histologique pour l’hépatite chronique virale C. Il y a quelques années l’utilisation de cette association d’interféron + ribavirine permettait d’obtenir une réponse virologique prolongée chez environ la moitié des malades ayant rechuté après un traitement d’interféron seul.
-Depuis 2011, en ce qui concerne les génotypes plus résistants de l'hépatite C (génotypes 1 et 4), afin d'obtenir un pourcentage bien plus important d'éradication du virus, on associe de plus en plus fréquemment un inhibiteur de la protéase (Bocéprévir, Télaprévir, TMC435) à la bithérapie classique (interféron et ribavirine).
+La ribavirine selon de premiers tests ayant porté sur l'effet de la ribavirine sur un gène (le gène eIF4E qui dysfonctionne dans 30 % des cancers), serait également efficace dans le traitement d'environ 30 % des cancers, apparemment sans effets négatifs pour le patient. La recherche se poursuit (notamment sur l'apparition d'éventuelles résistances au traitement ou les effets sur d'autres sortes de cancers), n'ayant à ce jour porté que sur un nombre limité (13 cas) de leucémie myéloïde aiguë M4 et M5 après plusieurs traitements sans effets par d'autres médicaments) mais avec des résultats « spectaculaires » selon le Dr Assouline.
 </t>
         </is>
       </c>
@@ -619,10 +631,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En monothérapie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ribavirine, comme précisé précédemment, est rarement prescrite dans le traitement des infections respiratoires à virus syncytial bien que des études rétrospectives ont suggéré que l’administration précoce de ribavirine et d’immunoglobulines pour les infections à RSV des voies respiratoires supérieures diminue le risque d’extension aux voies respiratoires inférieures et donc la morbidité et la mortalité. 
+L’effet de la ribavirine en monothérapie chez les malades atteints d’hépatite C chronique permet une réduction des transaminases et de l’activité inflammatoire histologique sans influer sur la réplication virale. Elle n’est donc généralement pas administrée en monothérapie dans ce type d’infection. Cependant pour les patients présentant une contre-indication ou une intolérance à l’interféron, son utilisation pourra être discutée bien que cette stratégie n’ait pas été suffisamment validée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En bithérapie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puisque la ribavirine est inefficace sur la réplication virale en monothérapie, elle est prescrite en association avec l’interféron et semble pouvoir potentialiser l’efficacité de ce dernier, et ceci chez un patient naïf (jamais traité) ou répondeur-rechuteur à une première cure d’interféron. Plusieurs études de grande ampleur ont été publiées et mettent en évidence la supériorité du traitement combiné de l’interféron et la ribavirine par rapport au traitement en monothérapie de l’interféron en termes de réponse prolongée biochimique, virologique et histologique pour l’hépatite chronique virale C. Il y a quelques années l’utilisation de cette association d’interféron + ribavirine permettait d’obtenir une réponse virologique prolongée chez environ la moitié des malades ayant rechuté après un traitement d’interféron seul.
+Depuis 2011, en ce qui concerne les génotypes plus résistants de l'hépatite C (génotypes 1 et 4), afin d'obtenir un pourcentage bien plus important d'éradication du virus, on associe de plus en plus fréquemment un inhibiteur de la protéase (Bocéprévir, Télaprévir, TMC435) à la bithérapie classique (interféron et ribavirine).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Résultats (chiffres)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement par la ribavirine n’a pas prouvé une réelle efficacité dans la phase aiguë de la bronchiolite à VRS mais ces effets à long terme sont tout de même réduits. En effet les enfants traités à la ribavirine avaient significativement moins d’épisodes fébriles : 2,3 à 2,7 épisodes contre 4,2 à 6,4 épisodes sans ribavirine, et moins d’hospitalisations pour pathologies respiratoires : 25 jours contre 90 jours pour 100 patients sur une période de 1 an. Un traitement par ribavirine (virazole) semble donc être associé à un effet protecteur de l’hyperactivité bronchique survenant après une bronchiolite à VRS.
 La durée et l’efficacité du traitement de l’association INF+ribavirine sont déterminées par divers facteurs dont notamment le génotype viral et la quantité virale. Selon l’étude d’Hadziyannis portant sur l’impact de différentes durées de traitement et diverses doses de ribavirine associées au nouvel interféron (PEgIFN2a) ; les meilleurs taux de réponse s’élevaient à 47 % pour des patients infectés par un virus de génotype 1 ayant bénéficié pendant 48 semaines de la bithérapie et de doses élevées de ribavirine (1 à 1,2 g). Pour le même type de patients le traitement a permis d’obtenir une guérison dans 29 % des cas contre 9 % traités avec de l’interféron seul.
@@ -632,31 +722,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine est commercialisée sous 21 formes différentes :
 Copegus
@@ -684,31 +776,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Galénique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine peut être administrée oralement ou par voie intraveineuse. On la trouve également sous forme d’aérosol.
 La forme orale peut être délivrée par boîte de 84, 140 ou 168 gélules.
@@ -716,31 +810,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine a plusieurs sites d’action dont certains peuvent en potentialiser d’autres.
 Elle aurait davantage un effet sur la réponse immune de l’hôte que sur le VHC lui-même.
@@ -751,31 +847,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Après administration orale, la ribavirine est absorbée au niveau de l’intestin grêle proximal grâce à des transporteurs de sodium puis transportée au niveau de toutes les cellules humaines où elle sera phosphorylée (de façon réversible), le métabolite principalement obtenu étant la ribavirine-triphosphate.
 Or le transport vers le milieu extracellulaire nécessite une déphosphorylation, et ce mécanisme n’est pas possible au niveau des érythrocytes ce qui explique qu’après plusieurs prises la molécule phosphorylée s’accumulera dans le plasma sanguin. 
@@ -785,31 +883,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise orale quotidienne de ribavirine est prescrite selon le poids du patient. Ainsi la posologie pour un patient ayant un poids :
 &lt; 65 kg → 800 mg/jour
@@ -820,31 +920,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Informations pratiques</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">En dehors de cas particuliers (comme une contre-indication à l’interféron par exemple), la ribavirine ne doit pas être prescrite en monothérapie dans le cas de l’hépatite C chronique.
 La bithérapie IFN+ribavirine est limitée par d’importants effets secondaires et des taux de guérison variables. De ce fait de nombreux patients ne sont pas candidats au traitement et beaucoup reportent la thérapie pour diverses raisons (sociales, professionnelles, …)
@@ -855,31 +957,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine en aérosol est généralement bien tolérée mais peut tout de même engendrer une irritation conjonctivale, une dyspnée asthmatiforme transitoire et occasionnellement une détérioration réversible de la fonction pulmonaire.
 La forme orale administrée durant une courte durée peut quant à elle augmenter de façon réversible le taux de bilirubine non conjuguée, le taux de fer sérique et l’uricémie.
@@ -901,31 +1005,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine est contre-indiquée chez le patient insuffisant rénal et donc a fortiori chez le patient hémodialysé en raison de l’accumulation des métabolites du médicament menant à une toxicité accrue. 
 L’antiviral est aussi déconseillé chez les patients souffrant de maladies cardiovasculaires (risque d’anémie hémolytique sévère).
@@ -934,62 +1040,66 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Surdosage</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d’études cliniques avec Rebetol utilisé en association avec PegIFN, un patient a absorbé en une journée des doses de 10g de ribavirine (50 gélules de 200 mg) et 39 MUI d’INFα2b (13 injections sous-cutanées de 3 MUI) dans le cadre d’une tentative de suicide. Il a été rapporté que le patient, placé en observation pendant deux jours au service de réanimation, n’a présenté aucun effet indésirable associé à un tel surdosage.
 </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Conclusion : coûts, recherches...</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribavirine est commercialisée dans 44 pays au total et couvre 10 indications virales.
 C’est un médicament de classe I remboursé à 65 % par la sécurité sociale (en France).
@@ -1004,33 +1114,35 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Ribavirine</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ribavirine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribavirine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ribavirine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ribavirine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
